--- a/DBPrototype.xlsx
+++ b/DBPrototype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smart\source\repos\FBLAQuizApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C04E03-6549-4D6A-A8FA-F0BBC3C935EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A574CD59-C8D9-48BD-A811-1F44C7480B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1485" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>The concept of FBLA was developed in 1937.</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t/>
@@ -553,20 +550,20 @@
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -574,25 +571,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -600,25 +597,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
